--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tony/Documents/GitHub/unitree-qmini-robot/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tony/Documents/GitHub/Unitree-Qmini-Robot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B596136C-7DEC-8E49-8AF2-2155DB9C7780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79575BE8-51C7-9443-8A93-C2529386FBDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="500" windowWidth="46760" windowHeight="27260" activeTab="1" xr2:uid="{AB9389B4-2FA2-4848-9210-F8543C78B964}"/>
+    <workbookView xWindow="4440" yWindow="500" windowWidth="37880" windowHeight="36460" xr2:uid="{AB9389B4-2FA2-4848-9210-F8543C78B964}"/>
   </bookViews>
   <sheets>
     <sheet name="3D Print" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="168">
   <si>
     <t>Right Foot A</t>
   </si>
@@ -538,6 +538,9 @@
   </si>
   <si>
     <t>波纹软管</t>
+  </si>
+  <si>
+    <t>Polymaker HT-PLA</t>
   </si>
 </sst>
 </file>
@@ -923,6 +926,21 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -931,21 +949,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1284,8 +1287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08BE0F49-92DE-F34E-B54B-F98DD53080BB}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1369,7 +1372,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>38</v>
+        <v>167</v>
       </c>
       <c r="C5" s="11">
         <v>0.2</v>
@@ -1381,7 +1384,7 @@
         <v>72</v>
       </c>
       <c r="F5" s="13">
-        <v>957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -1389,7 +1392,7 @@
         <v>53</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>38</v>
+        <v>167</v>
       </c>
       <c r="C6" s="11">
         <v>1</v>
@@ -1401,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="13">
-        <v>168.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -1409,7 +1412,7 @@
         <v>23</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
       <c r="C7" s="11">
         <v>0.2</v>
@@ -1419,7 +1422,7 @@
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="13">
-        <v>1048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -2041,7 +2044,7 @@
       </c>
       <c r="F48" s="33">
         <f>SUM(F3:F47)</f>
-        <v>4358.2299999999996</v>
+        <v>2184.7800000000002</v>
       </c>
     </row>
   </sheetData>
@@ -2053,7 +2056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33821E08-F46F-4446-B9C0-A0B043389FFA}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A43" sqref="A43:G43"/>
     </sheetView>
   </sheetViews>
@@ -2093,15 +2096,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="34" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="47"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="52"/>
     </row>
     <row r="3" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -2726,15 +2729,15 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="46"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="47"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="52"/>
     </row>
     <row r="31" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
@@ -2875,15 +2878,15 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="45" t="s">
+      <c r="A37" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="46"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="47"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="52"/>
     </row>
     <row r="38" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
@@ -2972,20 +2975,20 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="48" t="s">
+      <c r="A42" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="B42" s="49" t="s">
+      <c r="B42" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="50" t="s">
+      <c r="C42" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="D42" s="49"/>
-      <c r="E42" s="51">
+      <c r="D42" s="46"/>
+      <c r="E42" s="48">
         <v>2</v>
       </c>
-      <c r="F42" s="52">
+      <c r="F42" s="49">
         <v>897</v>
       </c>
       <c r="G42" s="43">
@@ -2994,15 +2997,15 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="45" t="s">
+      <c r="A43" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="46"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="47"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="52"/>
     </row>
     <row r="44" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
@@ -3101,15 +3104,15 @@
       </c>
     </row>
     <row r="48" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="45" t="s">
+      <c r="A48" s="50" t="s">
         <v>165</v>
       </c>
-      <c r="B48" s="46"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="47"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="52"/>
     </row>
     <row r="49" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
@@ -3125,7 +3128,7 @@
         <v>5</v>
       </c>
       <c r="G49" s="43">
-        <f>E49*F49</f>
+        <f t="shared" ref="G49:G56" si="13">E49*F49</f>
         <v>5</v>
       </c>
     </row>
@@ -3137,7 +3140,7 @@
       <c r="E50" s="12"/>
       <c r="F50" s="40"/>
       <c r="G50" s="43">
-        <f>E50*F50</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -3149,7 +3152,7 @@
       <c r="E51" s="12"/>
       <c r="F51" s="40"/>
       <c r="G51" s="43">
-        <f>E51*F51</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -3161,7 +3164,7 @@
       <c r="E52" s="12"/>
       <c r="F52" s="40"/>
       <c r="G52" s="43">
-        <f>E52*F52</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -3173,7 +3176,7 @@
       <c r="E53" s="12"/>
       <c r="F53" s="40"/>
       <c r="G53" s="43">
-        <f>E53*F53</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -3185,7 +3188,7 @@
       <c r="E54" s="12"/>
       <c r="F54" s="40"/>
       <c r="G54" s="43">
-        <f>E54*F54</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -3197,7 +3200,7 @@
       <c r="E55" s="12"/>
       <c r="F55" s="40"/>
       <c r="G55" s="43">
-        <f>E55*F55</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -3209,7 +3212,7 @@
       <c r="E56" s="12"/>
       <c r="F56" s="40"/>
       <c r="G56" s="43">
-        <f>E56*F56</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tony/Documents/GitHub/Unitree-Qmini-Robot/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tony/Documents/GitHub/unitree-qmini-robot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79575BE8-51C7-9443-8A93-C2529386FBDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDEA9ABD-822A-284C-BA52-3A6FBAFBCEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="500" windowWidth="37880" windowHeight="36460" xr2:uid="{AB9389B4-2FA2-4848-9210-F8543C78B964}"/>
+    <workbookView xWindow="4440" yWindow="500" windowWidth="37880" windowHeight="27260" xr2:uid="{AB9389B4-2FA2-4848-9210-F8543C78B964}"/>
   </bookViews>
   <sheets>
     <sheet name="3D Print" sheetId="1" r:id="rId1"/>
@@ -1288,7 +1288,7 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1587,74 +1587,74 @@
     </row>
     <row r="20" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C20" s="18">
-        <v>0.4</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="16">
-        <v>13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="16"/>
       <c r="F20" s="17">
-        <v>0</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C21" s="18">
-        <v>0.4</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="16">
-        <v>13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D21" s="18"/>
+      <c r="E21" s="16"/>
       <c r="F21" s="17">
-        <v>0</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B22" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="18">
+        <v>0.4</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="16">
+        <v>13</v>
+      </c>
+      <c r="F22" s="17">
         <v>38</v>
-      </c>
-      <c r="C22" s="18">
-        <v>1</v>
-      </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="17">
-        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B23" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="18">
+        <v>0.4</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="16">
+        <v>13</v>
+      </c>
+      <c r="F23" s="17">
         <v>38</v>
-      </c>
-      <c r="C23" s="18">
-        <v>1</v>
-      </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="17">
-        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -1662,7 +1662,7 @@
         <v>36</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C24" s="18">
         <v>0.4</v>
@@ -1674,7 +1674,7 @@
         <v>8</v>
       </c>
       <c r="F24" s="17">
-        <v>0</v>
+        <v>25.64</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -1682,7 +1682,7 @@
         <v>37</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C25" s="18">
         <v>0.4</v>
@@ -1694,7 +1694,7 @@
         <v>8</v>
       </c>
       <c r="F25" s="17">
-        <v>0</v>
+        <v>25.64</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -2044,7 +2044,7 @@
       </c>
       <c r="F48" s="33">
         <f>SUM(F3:F47)</f>
-        <v>2184.7800000000002</v>
+        <v>2312.0600000000004</v>
       </c>
     </row>
   </sheetData>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tony/Documents/GitHub/unitree-qmini-robot/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tony/Documents/GitHub/Unitree-Qmini-Robot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDEA9ABD-822A-284C-BA52-3A6FBAFBCEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3DDDD7-6FF4-4D44-A1F8-4F6A92D2F5A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="500" windowWidth="37880" windowHeight="27260" xr2:uid="{AB9389B4-2FA2-4848-9210-F8543C78B964}"/>
+    <workbookView xWindow="4440" yWindow="500" windowWidth="45800" windowHeight="38620" activeTab="1" xr2:uid="{AB9389B4-2FA2-4848-9210-F8543C78B964}"/>
   </bookViews>
   <sheets>
     <sheet name="3D Print" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="171">
   <si>
     <t>Right Foot A</t>
   </si>
@@ -541,6 +541,15 @@
   </si>
   <si>
     <t>Polymaker HT-PLA</t>
+  </si>
+  <si>
+    <t>IMU</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=645061129098&amp;skuId=4648099525532</t>
+  </si>
+  <si>
+    <t>N100 不带外壳</t>
   </si>
 </sst>
 </file>
@@ -1287,7 +1296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08BE0F49-92DE-F34E-B54B-F98DD53080BB}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -2054,10 +2063,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33821E08-F46F-4446-B9C0-A0B043389FFA}">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:G43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2174,7 +2183,7 @@
         <v>0.2</v>
       </c>
       <c r="G5" s="43">
-        <f t="shared" ref="G5:G39" si="0">E5*F5</f>
+        <f t="shared" ref="G5:G40" si="0">E5*F5</f>
         <v>2.4000000000000004</v>
       </c>
     </row>
@@ -2729,52 +2738,50 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="50" t="s">
+      <c r="A30" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C30" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="12">
+        <v>1</v>
+      </c>
+      <c r="F30" s="40">
+        <v>265</v>
+      </c>
+      <c r="G30" s="43">
+        <f>E30*F30</f>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="52"/>
-    </row>
-    <row r="31" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C31" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="E31" s="12">
-        <v>50</v>
-      </c>
-      <c r="F31" s="40">
-        <v>0.3</v>
-      </c>
-      <c r="G31" s="43">
-        <f t="shared" ref="G31:G35" si="7">E31*F31</f>
-        <v>15</v>
-      </c>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="52"/>
     </row>
     <row r="32" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
         <v>87</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="C32" s="41" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E32" s="12">
         <v>50</v>
@@ -2783,300 +2790,300 @@
         <v>0.3</v>
       </c>
       <c r="G32" s="43">
-        <f t="shared" ref="G32" si="8">E32*F32</f>
+        <f t="shared" ref="G32:G36" si="7">E32*F32</f>
         <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E33" s="12">
+        <v>50</v>
+      </c>
+      <c r="F33" s="40">
+        <v>0.3</v>
+      </c>
+      <c r="G33" s="43">
+        <f t="shared" ref="G33" si="8">E33*F33</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B34" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C33" s="41" t="s">
+      <c r="C34" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D34" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E34" s="12">
         <v>12</v>
       </c>
-      <c r="F33" s="40">
+      <c r="F34" s="40">
         <v>0.36</v>
       </c>
-      <c r="G33" s="43">
+      <c r="G34" s="43">
         <f t="shared" si="7"/>
         <v>4.32</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="C34" s="41" t="s">
-        <v>137</v>
-      </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="12">
-        <v>4</v>
-      </c>
-      <c r="F34" s="40">
-        <v>16.5</v>
-      </c>
-      <c r="G34" s="43">
-        <f t="shared" si="7"/>
-        <v>66</v>
-      </c>
-    </row>
     <row r="35" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="C35" s="41" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="12">
         <v>4</v>
       </c>
       <c r="F35" s="40">
-        <v>897</v>
+        <v>16.5</v>
       </c>
       <c r="G35" s="43">
         <f t="shared" si="7"/>
-        <v>3588</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>162</v>
+        <v>83</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>163</v>
+        <v>84</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="12">
         <v>4</v>
       </c>
       <c r="F36" s="40">
+        <v>897</v>
+      </c>
+      <c r="G36" s="43">
+        <f t="shared" si="7"/>
+        <v>3588</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C37" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="12">
+        <v>4</v>
+      </c>
+      <c r="F37" s="40">
         <v>49</v>
       </c>
-      <c r="G36" s="43">
+      <c r="G37" s="43">
         <f t="shared" si="0"/>
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="50" t="s">
+    <row r="38" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="51"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="52"/>
-    </row>
-    <row r="38" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="10" t="s">
+      <c r="B38" s="51"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="52"/>
+    </row>
+    <row r="39" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B39" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="41" t="s">
+      <c r="C39" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D39" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E39" s="12">
         <v>6</v>
       </c>
-      <c r="F38" s="40">
+      <c r="F39" s="40">
         <v>0.2</v>
       </c>
-      <c r="G38" s="43">
+      <c r="G39" s="43">
         <f t="shared" si="0"/>
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="10" t="s">
+    <row r="40" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B40" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C39" s="41" t="s">
+      <c r="C40" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D39" s="10"/>
-      <c r="E39" s="12">
+      <c r="D40" s="10"/>
+      <c r="E40" s="12">
         <v>6</v>
       </c>
-      <c r="F39" s="40">
+      <c r="F40" s="40">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G39" s="43">
+      <c r="G40" s="43">
         <f t="shared" si="0"/>
         <v>1.6800000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C40" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="D40" s="10"/>
-      <c r="E40" s="12">
-        <v>12</v>
-      </c>
-      <c r="F40" s="40">
-        <v>0.3</v>
-      </c>
-      <c r="G40" s="43">
-        <f t="shared" ref="G40" si="9">E40*F40</f>
-        <v>3.5999999999999996</v>
-      </c>
-    </row>
     <row r="41" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
+        <v>87</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="41" t="s">
+        <v>91</v>
+      </c>
       <c r="D41" s="10"/>
       <c r="E41" s="12">
+        <v>12</v>
+      </c>
+      <c r="F41" s="40">
+        <v>0.3</v>
+      </c>
+      <c r="G41" s="43">
+        <f t="shared" ref="G41" si="9">E41*F41</f>
+        <v>3.5999999999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="12">
         <v>2</v>
       </c>
-      <c r="F41" s="40">
+      <c r="F42" s="40">
         <v>100</v>
-      </c>
-      <c r="G41" s="43">
-        <f>E41*F41</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="B42" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="C42" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="D42" s="46"/>
-      <c r="E42" s="48">
-        <v>2</v>
-      </c>
-      <c r="F42" s="49">
-        <v>897</v>
       </c>
       <c r="G42" s="43">
         <f>E42*F42</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="D43" s="46"/>
+      <c r="E43" s="48">
+        <v>2</v>
+      </c>
+      <c r="F43" s="49">
+        <v>897</v>
+      </c>
+      <c r="G43" s="43">
+        <f>E43*F43</f>
         <v>1794</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="50" t="s">
+    <row r="44" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="51"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="52"/>
-    </row>
-    <row r="44" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C44" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="E44" s="12">
-        <v>2</v>
-      </c>
-      <c r="F44" s="40">
-        <v>0.2</v>
-      </c>
-      <c r="G44" s="43">
-        <f>E44*F44</f>
-        <v>0.4</v>
-      </c>
+      <c r="B44" s="51"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="52"/>
     </row>
     <row r="45" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="C45" s="41" t="s">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="E45" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F45" s="40">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="G45" s="43">
-        <f t="shared" ref="G45" si="10">E45*F45</f>
-        <v>1.2</v>
+        <f>E45*F45</f>
+        <v>0.4</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="C46" s="41" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E46" s="12">
         <v>4</v>
       </c>
       <c r="F46" s="40">
-        <v>0.28000000000000003</v>
+        <v>0.3</v>
       </c>
       <c r="G46" s="43">
-        <f t="shared" ref="G46" si="11">E46*F46</f>
-        <v>1.1200000000000001</v>
+        <f t="shared" ref="G46" si="10">E46*F46</f>
+        <v>1.2</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -3084,64 +3091,76 @@
         <v>92</v>
       </c>
       <c r="B47" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E47" s="12">
+        <v>4</v>
+      </c>
+      <c r="F47" s="40">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G47" s="43">
+        <f t="shared" ref="G47" si="11">E47*F47</f>
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C47" s="41" t="s">
+      <c r="C48" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D48" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="E47" s="12">
+      <c r="E48" s="12">
         <v>2</v>
       </c>
-      <c r="F47" s="40">
+      <c r="F48" s="40">
         <v>0.21</v>
       </c>
-      <c r="G47" s="43">
-        <f t="shared" ref="G47" si="12">E47*F47</f>
+      <c r="G48" s="43">
+        <f t="shared" ref="G48" si="12">E48*F48</f>
         <v>0.42</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="50" t="s">
+    <row r="49" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="50" t="s">
         <v>165</v>
       </c>
-      <c r="B48" s="51"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="52"/>
-    </row>
-    <row r="49" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="10" t="s">
+      <c r="B49" s="51"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="52"/>
+    </row>
+    <row r="50" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="12">
-        <v>1</v>
-      </c>
-      <c r="F49" s="40">
-        <v>5</v>
-      </c>
-      <c r="G49" s="43">
-        <f t="shared" ref="G49:G56" si="13">E49*F49</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="40"/>
+      <c r="E50" s="12">
+        <v>1</v>
+      </c>
+      <c r="F50" s="40">
+        <v>5</v>
+      </c>
       <c r="G50" s="43">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" ref="G50:G57" si="13">E50*F50</f>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -3217,26 +3236,38 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G57" s="44">
-        <f>SUM(G3:G56)</f>
-        <v>13844.554000000002</v>
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="43">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G58" s="44">
+        <f>SUM(G3:G57)</f>
+        <v>14109.554000000002</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A49:G49"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{A478C749-2080-B344-A289-CDF5D97B29A2}"/>
     <hyperlink ref="C5" r:id="rId2" xr:uid="{44C7BED6-AA93-3C43-B7CD-0009ABF6B6BB}"/>
     <hyperlink ref="C3" r:id="rId3" xr:uid="{B2AA866E-24F3-1646-ACED-D65EF9988155}"/>
-    <hyperlink ref="C38" r:id="rId4" xr:uid="{5010F871-A4EB-C348-B9FA-9AFAB7A4795F}"/>
+    <hyperlink ref="C39" r:id="rId4" xr:uid="{5010F871-A4EB-C348-B9FA-9AFAB7A4795F}"/>
     <hyperlink ref="C6" r:id="rId5" xr:uid="{6D0F970B-33A6-5741-B59A-13BE191765B5}"/>
-    <hyperlink ref="C44" r:id="rId6" xr:uid="{6E9AF94B-6606-EF47-BF3F-E19A5CFAFBEA}"/>
+    <hyperlink ref="C45" r:id="rId6" xr:uid="{6E9AF94B-6606-EF47-BF3F-E19A5CFAFBEA}"/>
     <hyperlink ref="C7" r:id="rId7" xr:uid="{D08990E8-0BCD-A44E-8FA8-5BE704D9FBEC}"/>
     <hyperlink ref="C8" r:id="rId8" xr:uid="{E2E6BF14-5F83-F745-A590-905519EB4A90}"/>
     <hyperlink ref="C9" r:id="rId9" xr:uid="{53620724-76B4-204B-AE5B-48ED373D3F0E}"/>
@@ -3250,27 +3281,28 @@
     <hyperlink ref="C17" r:id="rId17" xr:uid="{33FB920F-0669-0043-8C0C-BC6FBFCB38E1}"/>
     <hyperlink ref="C14" r:id="rId18" xr:uid="{E3D98391-497D-E645-A06E-B9C450FAA734}"/>
     <hyperlink ref="C15" r:id="rId19" xr:uid="{A82B3F0C-F6F0-BA48-95E6-EDBA66CD97B8}"/>
-    <hyperlink ref="C31" r:id="rId20" xr:uid="{D95FFA29-399D-6745-AC54-EDBAF115DD55}"/>
-    <hyperlink ref="C33" r:id="rId21" xr:uid="{DE78C3B5-25F3-B54C-AF32-A45A3CCF82C6}"/>
+    <hyperlink ref="C32" r:id="rId20" xr:uid="{D95FFA29-399D-6745-AC54-EDBAF115DD55}"/>
+    <hyperlink ref="C34" r:id="rId21" xr:uid="{DE78C3B5-25F3-B54C-AF32-A45A3CCF82C6}"/>
     <hyperlink ref="C24" r:id="rId22" xr:uid="{E5990545-4A5C-BF4D-A2E3-33113701B5BE}"/>
     <hyperlink ref="C25" r:id="rId23" xr:uid="{D97E6BC1-9B0F-7E4B-8DD8-6831F4863D0B}"/>
-    <hyperlink ref="C35" r:id="rId24" xr:uid="{52B47181-A334-734F-89EA-4D3CC6EE8FEE}"/>
-    <hyperlink ref="C42" r:id="rId25" xr:uid="{9DED03EC-6FA0-E340-9F64-4A2AFDB1BB32}"/>
-    <hyperlink ref="C32" r:id="rId26" xr:uid="{1B940CD5-6B42-114A-91F4-C00313929BF7}"/>
-    <hyperlink ref="C34" r:id="rId27" xr:uid="{9BF33B54-D294-6A41-BBDB-50238FA80D2D}"/>
-    <hyperlink ref="C39" r:id="rId28" xr:uid="{5D41B570-A2D6-AF45-8AF9-F20A8D241585}"/>
-    <hyperlink ref="C40" r:id="rId29" xr:uid="{F14BE297-86D6-B04A-98BE-ECD2D9A15FD8}"/>
+    <hyperlink ref="C36" r:id="rId24" xr:uid="{52B47181-A334-734F-89EA-4D3CC6EE8FEE}"/>
+    <hyperlink ref="C43" r:id="rId25" xr:uid="{9DED03EC-6FA0-E340-9F64-4A2AFDB1BB32}"/>
+    <hyperlink ref="C33" r:id="rId26" xr:uid="{1B940CD5-6B42-114A-91F4-C00313929BF7}"/>
+    <hyperlink ref="C35" r:id="rId27" xr:uid="{9BF33B54-D294-6A41-BBDB-50238FA80D2D}"/>
+    <hyperlink ref="C40" r:id="rId28" xr:uid="{5D41B570-A2D6-AF45-8AF9-F20A8D241585}"/>
+    <hyperlink ref="C41" r:id="rId29" xr:uid="{F14BE297-86D6-B04A-98BE-ECD2D9A15FD8}"/>
     <hyperlink ref="C20" r:id="rId30" xr:uid="{A0566B4B-F7CD-C14A-9EBE-943CA43F653D}"/>
     <hyperlink ref="C21" r:id="rId31" xr:uid="{4BBCC18B-64B9-3948-8B17-249473C5AF6C}"/>
-    <hyperlink ref="C46" r:id="rId32" xr:uid="{AFDE7C59-FB6E-0B4D-A90B-C615F01A2424}"/>
-    <hyperlink ref="C45" r:id="rId33" xr:uid="{7295D0B3-C7AB-5D42-9A78-48C8E9745CA1}"/>
-    <hyperlink ref="C47" r:id="rId34" xr:uid="{0CFFB14A-47E8-B945-BCEB-B671BA1D6F52}"/>
+    <hyperlink ref="C47" r:id="rId32" xr:uid="{AFDE7C59-FB6E-0B4D-A90B-C615F01A2424}"/>
+    <hyperlink ref="C46" r:id="rId33" xr:uid="{7295D0B3-C7AB-5D42-9A78-48C8E9745CA1}"/>
+    <hyperlink ref="C48" r:id="rId34" xr:uid="{0CFFB14A-47E8-B945-BCEB-B671BA1D6F52}"/>
     <hyperlink ref="C27" r:id="rId35" xr:uid="{6A187383-C123-564D-BC92-969FA3FB5726}"/>
     <hyperlink ref="C23" r:id="rId36" xr:uid="{1A29D440-BF31-E94C-BCA6-0C1202A21991}"/>
     <hyperlink ref="C28" r:id="rId37" xr:uid="{36344359-AB27-274E-A2FC-98CD85B6FB8C}"/>
     <hyperlink ref="C29" r:id="rId38" xr:uid="{A971E1C7-2D55-DA4F-9835-BC42C1DB56AF}"/>
-    <hyperlink ref="C36" r:id="rId39" xr:uid="{902445E2-BD52-B240-B54D-20CF95DAB079}"/>
+    <hyperlink ref="C37" r:id="rId39" xr:uid="{902445E2-BD52-B240-B54D-20CF95DAB079}"/>
     <hyperlink ref="C26" r:id="rId40" xr:uid="{D0310BD2-7368-3C4A-AB34-40C7279D4F0B}"/>
+    <hyperlink ref="C30" r:id="rId41" xr:uid="{FAD92DE1-A270-F24C-8E9F-F880408C8288}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tony/Documents/GitHub/Unitree-Qmini-Robot/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tony/Documents/GitHub/unitree-qmini-robot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3DDDD7-6FF4-4D44-A1F8-4F6A92D2F5A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A98B84-3508-2A4C-841B-96177CC6210A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="500" windowWidth="45800" windowHeight="38620" activeTab="1" xr2:uid="{AB9389B4-2FA2-4848-9210-F8543C78B964}"/>
+    <workbookView xWindow="4440" yWindow="500" windowWidth="45800" windowHeight="27260" activeTab="1" xr2:uid="{AB9389B4-2FA2-4848-9210-F8543C78B964}"/>
   </bookViews>
   <sheets>
     <sheet name="3D Print" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="174">
   <si>
     <t>Right Foot A</t>
   </si>
@@ -550,6 +550,15 @@
   </si>
   <si>
     <t>N100 不带外壳</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=577536722051</t>
+  </si>
+  <si>
+    <t>KCD1-104</t>
+  </si>
+  <si>
+    <t>2档</t>
   </si>
 </sst>
 </file>
@@ -2065,8 +2074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33821E08-F46F-4446-B9C0-A0B043389FFA}">
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2573,14 +2582,24 @@
       <c r="A22" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="40"/>
+      <c r="B22" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="E22" s="12">
+        <v>1</v>
+      </c>
+      <c r="F22" s="40">
+        <v>1.1200000000000001</v>
+      </c>
       <c r="G22" s="43">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -3250,7 +3269,7 @@
     <row r="58" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G58" s="44">
         <f>SUM(G3:G57)</f>
-        <v>14109.554000000002</v>
+        <v>14110.674000000003</v>
       </c>
     </row>
   </sheetData>
@@ -3303,6 +3322,7 @@
     <hyperlink ref="C37" r:id="rId39" xr:uid="{902445E2-BD52-B240-B54D-20CF95DAB079}"/>
     <hyperlink ref="C26" r:id="rId40" xr:uid="{D0310BD2-7368-3C4A-AB34-40C7279D4F0B}"/>
     <hyperlink ref="C30" r:id="rId41" xr:uid="{FAD92DE1-A270-F24C-8E9F-F880408C8288}"/>
+    <hyperlink ref="C22" r:id="rId42" xr:uid="{3E7B7CBC-84DD-1241-A9BD-85A9EBC5992B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tony/Documents/GitHub/unitree-qmini-robot/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tony/Documents/GitHub/Unitree-Qmini-Robot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A98B84-3508-2A4C-841B-96177CC6210A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B60B166-980A-7840-92C7-CD83E6185DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="500" windowWidth="45800" windowHeight="27260" activeTab="1" xr2:uid="{AB9389B4-2FA2-4848-9210-F8543C78B964}"/>
+    <workbookView xWindow="4440" yWindow="500" windowWidth="45820" windowHeight="38620" activeTab="1" xr2:uid="{AB9389B4-2FA2-4848-9210-F8543C78B964}"/>
   </bookViews>
   <sheets>
     <sheet name="3D Print" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="180">
   <si>
     <t>Right Foot A</t>
   </si>
@@ -559,6 +559,24 @@
   </si>
   <si>
     <t>2档</t>
+  </si>
+  <si>
+    <t>https://www.misumi.com.cn/vona2/detail/110310158399/?ProductCode=LCFB6-2040-200-TPW</t>
+  </si>
+  <si>
+    <t>站立调试底座</t>
+  </si>
+  <si>
+    <t>2040 型材</t>
+  </si>
+  <si>
+    <t>经济型欧标槽宽 6mm</t>
+  </si>
+  <si>
+    <t>M3.5 x 16</t>
+  </si>
+  <si>
+    <t>上身电机上盖底部限位</t>
   </si>
 </sst>
 </file>
@@ -2072,17 +2090,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33821E08-F46F-4446-B9C0-A0B043389FFA}">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30" style="2" customWidth="1"/>
     <col min="2" max="2" width="37.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="64.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="64.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="16.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="36" customWidth="1"/>
@@ -2192,7 +2210,7 @@
         <v>0.2</v>
       </c>
       <c r="G5" s="43">
-        <f t="shared" ref="G5:G40" si="0">E5*F5</f>
+        <f t="shared" ref="G5:G41" si="0">E5*F5</f>
         <v>2.4000000000000004</v>
       </c>
     </row>
@@ -2508,26 +2526,24 @@
     </row>
     <row r="19" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C19" s="41" t="s">
-        <v>115</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="C19" s="41"/>
       <c r="D19" s="10" t="s">
-        <v>22</v>
+        <v>179</v>
       </c>
       <c r="E19" s="12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F19" s="40">
-        <v>1.0620000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="G19" s="43">
         <f t="shared" si="0"/>
-        <v>2.1240000000000001</v>
+        <v>1.7999999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -2535,34 +2551,34 @@
         <v>112</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>143</v>
+        <v>22</v>
       </c>
       <c r="E20" s="12">
         <v>2</v>
       </c>
       <c r="F20" s="40">
-        <v>1.585</v>
+        <v>1.0620000000000001</v>
       </c>
       <c r="G20" s="43">
-        <f t="shared" ref="G20" si="4">E20*F20</f>
-        <v>3.17</v>
+        <f t="shared" si="0"/>
+        <v>2.1240000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>143</v>
@@ -2571,260 +2587,260 @@
         <v>2</v>
       </c>
       <c r="F21" s="40">
-        <v>0.46</v>
+        <v>1.585</v>
       </c>
       <c r="G21" s="43">
-        <f t="shared" ref="G21" si="5">E21*F21</f>
-        <v>0.92</v>
+        <f t="shared" ref="G21" si="4">E21*F21</f>
+        <v>3.17</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E22" s="12">
+        <v>2</v>
+      </c>
+      <c r="F22" s="40">
+        <v>0.46</v>
+      </c>
+      <c r="G22" s="43">
+        <f t="shared" ref="G22" si="5">E22*F22</f>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B23" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C23" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D23" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E23" s="12">
         <v>1</v>
       </c>
-      <c r="F22" s="40">
+      <c r="F23" s="40">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G22" s="43">
+      <c r="G23" s="43">
         <f t="shared" si="0"/>
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
+    <row r="24" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B24" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C24" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="12">
+      <c r="D24" s="10"/>
+      <c r="E24" s="12">
         <v>2</v>
       </c>
-      <c r="F23" s="40">
+      <c r="F24" s="40">
         <v>8</v>
       </c>
-      <c r="G23" s="43">
+      <c r="G24" s="43">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
+    <row r="25" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B25" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C24" s="41" t="s">
+      <c r="C25" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="12">
+      <c r="D25" s="10"/>
+      <c r="E25" s="12">
         <v>1</v>
       </c>
-      <c r="F24" s="40">
+      <c r="F25" s="40">
         <v>199</v>
       </c>
-      <c r="G24" s="43">
+      <c r="G25" s="43">
         <f t="shared" si="0"/>
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="12">
-        <v>5</v>
-      </c>
-      <c r="F25" s="40">
-        <v>897</v>
-      </c>
-      <c r="G25" s="43">
-        <f>E25*F25</f>
-        <v>4485</v>
-      </c>
-    </row>
     <row r="26" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>162</v>
+        <v>83</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>163</v>
+        <v>84</v>
       </c>
       <c r="C26" s="41" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F26" s="40">
-        <v>49</v>
+        <v>897</v>
       </c>
       <c r="G26" s="43">
-        <f t="shared" ref="G26" si="6">E26*F26</f>
-        <v>196</v>
+        <f>E26*F26</f>
+        <v>4485</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="C27" s="41" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F27" s="40">
-        <v>377</v>
+        <v>49</v>
       </c>
       <c r="G27" s="43">
-        <f>E27*F27</f>
-        <v>377</v>
+        <f t="shared" ref="G27" si="6">E27*F27</f>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C28" s="41" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="12">
         <v>1</v>
       </c>
       <c r="F28" s="40">
-        <v>1999</v>
+        <v>377</v>
       </c>
       <c r="G28" s="43">
         <f>E28*F28</f>
-        <v>1999</v>
+        <v>377</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C29" s="41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="12">
         <v>1</v>
       </c>
       <c r="F29" s="40">
-        <v>600</v>
+        <v>1999</v>
       </c>
       <c r="G29" s="43">
         <f>E29*F29</f>
-        <v>600</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="C30" s="41" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="12">
         <v>1</v>
       </c>
       <c r="F30" s="40">
-        <v>265</v>
+        <v>600</v>
       </c>
       <c r="G30" s="43">
         <f>E30*F30</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C31" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="12">
+        <v>1</v>
+      </c>
+      <c r="F31" s="40">
         <v>265</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="50" t="s">
+      <c r="G31" s="43">
+        <f>E31*F31</f>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="52"/>
-    </row>
-    <row r="32" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C32" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="E32" s="12">
-        <v>50</v>
-      </c>
-      <c r="F32" s="40">
-        <v>0.3</v>
-      </c>
-      <c r="G32" s="43">
-        <f t="shared" ref="G32:G36" si="7">E32*F32</f>
-        <v>15</v>
-      </c>
+      <c r="B32" s="51"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="52"/>
     </row>
     <row r="33" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
         <v>87</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="C33" s="41" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E33" s="12">
         <v>50</v>
@@ -2833,300 +2849,300 @@
         <v>0.3</v>
       </c>
       <c r="G33" s="43">
-        <f t="shared" ref="G33" si="8">E33*F33</f>
+        <f t="shared" ref="G33:G37" si="7">E33*F33</f>
         <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E34" s="12">
+        <v>50</v>
+      </c>
+      <c r="F34" s="40">
+        <v>0.3</v>
+      </c>
+      <c r="G34" s="43">
+        <f t="shared" ref="G34" si="8">E34*F34</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B35" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="41" t="s">
+      <c r="C35" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D35" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E35" s="12">
         <v>12</v>
       </c>
-      <c r="F34" s="40">
+      <c r="F35" s="40">
         <v>0.36</v>
       </c>
-      <c r="G34" s="43">
+      <c r="G35" s="43">
         <f t="shared" si="7"/>
         <v>4.32</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="C35" s="41" t="s">
-        <v>137</v>
-      </c>
-      <c r="D35" s="10"/>
-      <c r="E35" s="12">
-        <v>4</v>
-      </c>
-      <c r="F35" s="40">
-        <v>16.5</v>
-      </c>
-      <c r="G35" s="43">
-        <f t="shared" si="7"/>
-        <v>66</v>
-      </c>
-    </row>
     <row r="36" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="12">
         <v>4</v>
       </c>
       <c r="F36" s="40">
-        <v>897</v>
+        <v>16.5</v>
       </c>
       <c r="G36" s="43">
         <f t="shared" si="7"/>
-        <v>3588</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>162</v>
+        <v>83</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>163</v>
+        <v>84</v>
       </c>
       <c r="C37" s="41" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="12">
         <v>4</v>
       </c>
       <c r="F37" s="40">
+        <v>897</v>
+      </c>
+      <c r="G37" s="43">
+        <f t="shared" si="7"/>
+        <v>3588</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C38" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="12">
+        <v>4</v>
+      </c>
+      <c r="F38" s="40">
         <v>49</v>
       </c>
-      <c r="G37" s="43">
+      <c r="G38" s="43">
         <f t="shared" si="0"/>
         <v>196</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="50" t="s">
+    <row r="39" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="52"/>
-    </row>
-    <row r="39" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="10" t="s">
+      <c r="B39" s="51"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="52"/>
+    </row>
+    <row r="40" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B40" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="41" t="s">
+      <c r="C40" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D40" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E40" s="12">
         <v>6</v>
       </c>
-      <c r="F39" s="40">
+      <c r="F40" s="40">
         <v>0.2</v>
       </c>
-      <c r="G39" s="43">
+      <c r="G40" s="43">
         <f t="shared" si="0"/>
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="10" t="s">
+    <row r="41" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B41" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C40" s="41" t="s">
+      <c r="C41" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D40" s="10"/>
-      <c r="E40" s="12">
+      <c r="D41" s="10"/>
+      <c r="E41" s="12">
         <v>6</v>
       </c>
-      <c r="F40" s="40">
+      <c r="F41" s="40">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G40" s="43">
+      <c r="G41" s="43">
         <f t="shared" si="0"/>
         <v>1.6800000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="D41" s="10"/>
-      <c r="E41" s="12">
-        <v>12</v>
-      </c>
-      <c r="F41" s="40">
-        <v>0.3</v>
-      </c>
-      <c r="G41" s="43">
-        <f t="shared" ref="G41" si="9">E41*F41</f>
-        <v>3.5999999999999996</v>
-      </c>
-    </row>
     <row r="42" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
+        <v>87</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="41" t="s">
+        <v>91</v>
+      </c>
       <c r="D42" s="10"/>
       <c r="E42" s="12">
+        <v>12</v>
+      </c>
+      <c r="F42" s="40">
+        <v>0.3</v>
+      </c>
+      <c r="G42" s="43">
+        <f t="shared" ref="G42" si="9">E42*F42</f>
+        <v>3.5999999999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="12">
         <v>2</v>
       </c>
-      <c r="F42" s="40">
+      <c r="F43" s="40">
         <v>100</v>
-      </c>
-      <c r="G42" s="43">
-        <f>E42*F42</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="B43" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="C43" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="D43" s="46"/>
-      <c r="E43" s="48">
-        <v>2</v>
-      </c>
-      <c r="F43" s="49">
-        <v>897</v>
       </c>
       <c r="G43" s="43">
         <f>E43*F43</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44" s="46"/>
+      <c r="E44" s="48">
+        <v>2</v>
+      </c>
+      <c r="F44" s="49">
+        <v>897</v>
+      </c>
+      <c r="G44" s="43">
+        <f>E44*F44</f>
         <v>1794</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="50" t="s">
+    <row r="45" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="51"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="52"/>
-    </row>
-    <row r="45" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C45" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="E45" s="12">
-        <v>2</v>
-      </c>
-      <c r="F45" s="40">
-        <v>0.2</v>
-      </c>
-      <c r="G45" s="43">
-        <f>E45*F45</f>
-        <v>0.4</v>
-      </c>
+      <c r="B45" s="51"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="52"/>
     </row>
     <row r="46" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="C46" s="41" t="s">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="E46" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F46" s="40">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="G46" s="43">
-        <f t="shared" ref="G46" si="10">E46*F46</f>
-        <v>1.2</v>
+        <f>E46*F46</f>
+        <v>0.4</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="C47" s="41" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E47" s="12">
         <v>4</v>
       </c>
       <c r="F47" s="40">
-        <v>0.28000000000000003</v>
+        <v>0.3</v>
       </c>
       <c r="G47" s="43">
-        <f t="shared" ref="G47" si="11">E47*F47</f>
-        <v>1.1200000000000001</v>
+        <f t="shared" ref="G47" si="10">E47*F47</f>
+        <v>1.2</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -3134,76 +3150,100 @@
         <v>92</v>
       </c>
       <c r="B48" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E48" s="12">
+        <v>4</v>
+      </c>
+      <c r="F48" s="40">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G48" s="43">
+        <f t="shared" ref="G48" si="11">E48*F48</f>
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C48" s="41" t="s">
+      <c r="C49" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D49" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="E48" s="12">
+      <c r="E49" s="12">
         <v>2</v>
       </c>
-      <c r="F48" s="40">
+      <c r="F49" s="40">
         <v>0.21</v>
       </c>
-      <c r="G48" s="43">
-        <f t="shared" ref="G48" si="12">E48*F48</f>
+      <c r="G49" s="43">
+        <f t="shared" ref="G49" si="12">E49*F49</f>
         <v>0.42</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="50" t="s">
+    <row r="50" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="50" t="s">
         <v>165</v>
       </c>
-      <c r="B49" s="51"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="51"/>
-      <c r="E49" s="51"/>
-      <c r="F49" s="51"/>
-      <c r="G49" s="52"/>
-    </row>
-    <row r="50" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="10" t="s">
+      <c r="B50" s="51"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="52"/>
+    </row>
+    <row r="51" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="12">
-        <v>1</v>
-      </c>
-      <c r="F50" s="40">
-        <v>5</v>
-      </c>
-      <c r="G50" s="43">
-        <f t="shared" ref="G50:G57" si="13">E50*F50</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="40"/>
+      <c r="E51" s="12">
+        <v>1</v>
+      </c>
+      <c r="F51" s="40">
+        <v>5</v>
+      </c>
       <c r="G51" s="43">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" ref="G51:G58" si="13">E51*F51</f>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="40"/>
+      <c r="A52" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C52" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E52" s="12">
+        <v>5</v>
+      </c>
+      <c r="F52" s="40">
+        <v>13.19</v>
+      </c>
       <c r="G52" s="43">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>65.95</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -3267,26 +3307,38 @@
       </c>
     </row>
     <row r="58" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G58" s="44">
-        <f>SUM(G3:G57)</f>
-        <v>14110.674000000003</v>
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="43">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G59" s="44">
+        <f>SUM(G3:G58)</f>
+        <v>14178.424000000003</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="A44:G44"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A50:G50"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{A478C749-2080-B344-A289-CDF5D97B29A2}"/>
     <hyperlink ref="C5" r:id="rId2" xr:uid="{44C7BED6-AA93-3C43-B7CD-0009ABF6B6BB}"/>
     <hyperlink ref="C3" r:id="rId3" xr:uid="{B2AA866E-24F3-1646-ACED-D65EF9988155}"/>
-    <hyperlink ref="C39" r:id="rId4" xr:uid="{5010F871-A4EB-C348-B9FA-9AFAB7A4795F}"/>
+    <hyperlink ref="C40" r:id="rId4" xr:uid="{5010F871-A4EB-C348-B9FA-9AFAB7A4795F}"/>
     <hyperlink ref="C6" r:id="rId5" xr:uid="{6D0F970B-33A6-5741-B59A-13BE191765B5}"/>
-    <hyperlink ref="C45" r:id="rId6" xr:uid="{6E9AF94B-6606-EF47-BF3F-E19A5CFAFBEA}"/>
+    <hyperlink ref="C46" r:id="rId6" xr:uid="{6E9AF94B-6606-EF47-BF3F-E19A5CFAFBEA}"/>
     <hyperlink ref="C7" r:id="rId7" xr:uid="{D08990E8-0BCD-A44E-8FA8-5BE704D9FBEC}"/>
     <hyperlink ref="C8" r:id="rId8" xr:uid="{E2E6BF14-5F83-F745-A590-905519EB4A90}"/>
     <hyperlink ref="C9" r:id="rId9" xr:uid="{53620724-76B4-204B-AE5B-48ED373D3F0E}"/>
@@ -3296,33 +3348,34 @@
     <hyperlink ref="C18" r:id="rId13" xr:uid="{0D761B1C-BFCE-CA4C-AC56-8959BBCD1D8C}"/>
     <hyperlink ref="C13" r:id="rId14" xr:uid="{C2BA66AB-51D1-4E48-BDF6-5786EE1F2757}"/>
     <hyperlink ref="C11" r:id="rId15" xr:uid="{5A619F16-5DF6-7A47-930C-607E13BD2744}"/>
-    <hyperlink ref="C19" r:id="rId16" xr:uid="{63E6DFF5-E6E6-9D48-BEF0-976C1610D4CA}"/>
+    <hyperlink ref="C20" r:id="rId16" xr:uid="{63E6DFF5-E6E6-9D48-BEF0-976C1610D4CA}"/>
     <hyperlink ref="C17" r:id="rId17" xr:uid="{33FB920F-0669-0043-8C0C-BC6FBFCB38E1}"/>
     <hyperlink ref="C14" r:id="rId18" xr:uid="{E3D98391-497D-E645-A06E-B9C450FAA734}"/>
     <hyperlink ref="C15" r:id="rId19" xr:uid="{A82B3F0C-F6F0-BA48-95E6-EDBA66CD97B8}"/>
-    <hyperlink ref="C32" r:id="rId20" xr:uid="{D95FFA29-399D-6745-AC54-EDBAF115DD55}"/>
-    <hyperlink ref="C34" r:id="rId21" xr:uid="{DE78C3B5-25F3-B54C-AF32-A45A3CCF82C6}"/>
-    <hyperlink ref="C24" r:id="rId22" xr:uid="{E5990545-4A5C-BF4D-A2E3-33113701B5BE}"/>
-    <hyperlink ref="C25" r:id="rId23" xr:uid="{D97E6BC1-9B0F-7E4B-8DD8-6831F4863D0B}"/>
-    <hyperlink ref="C36" r:id="rId24" xr:uid="{52B47181-A334-734F-89EA-4D3CC6EE8FEE}"/>
-    <hyperlink ref="C43" r:id="rId25" xr:uid="{9DED03EC-6FA0-E340-9F64-4A2AFDB1BB32}"/>
-    <hyperlink ref="C33" r:id="rId26" xr:uid="{1B940CD5-6B42-114A-91F4-C00313929BF7}"/>
-    <hyperlink ref="C35" r:id="rId27" xr:uid="{9BF33B54-D294-6A41-BBDB-50238FA80D2D}"/>
-    <hyperlink ref="C40" r:id="rId28" xr:uid="{5D41B570-A2D6-AF45-8AF9-F20A8D241585}"/>
-    <hyperlink ref="C41" r:id="rId29" xr:uid="{F14BE297-86D6-B04A-98BE-ECD2D9A15FD8}"/>
-    <hyperlink ref="C20" r:id="rId30" xr:uid="{A0566B4B-F7CD-C14A-9EBE-943CA43F653D}"/>
-    <hyperlink ref="C21" r:id="rId31" xr:uid="{4BBCC18B-64B9-3948-8B17-249473C5AF6C}"/>
-    <hyperlink ref="C47" r:id="rId32" xr:uid="{AFDE7C59-FB6E-0B4D-A90B-C615F01A2424}"/>
-    <hyperlink ref="C46" r:id="rId33" xr:uid="{7295D0B3-C7AB-5D42-9A78-48C8E9745CA1}"/>
-    <hyperlink ref="C48" r:id="rId34" xr:uid="{0CFFB14A-47E8-B945-BCEB-B671BA1D6F52}"/>
-    <hyperlink ref="C27" r:id="rId35" xr:uid="{6A187383-C123-564D-BC92-969FA3FB5726}"/>
-    <hyperlink ref="C23" r:id="rId36" xr:uid="{1A29D440-BF31-E94C-BCA6-0C1202A21991}"/>
-    <hyperlink ref="C28" r:id="rId37" xr:uid="{36344359-AB27-274E-A2FC-98CD85B6FB8C}"/>
-    <hyperlink ref="C29" r:id="rId38" xr:uid="{A971E1C7-2D55-DA4F-9835-BC42C1DB56AF}"/>
-    <hyperlink ref="C37" r:id="rId39" xr:uid="{902445E2-BD52-B240-B54D-20CF95DAB079}"/>
-    <hyperlink ref="C26" r:id="rId40" xr:uid="{D0310BD2-7368-3C4A-AB34-40C7279D4F0B}"/>
-    <hyperlink ref="C30" r:id="rId41" xr:uid="{FAD92DE1-A270-F24C-8E9F-F880408C8288}"/>
-    <hyperlink ref="C22" r:id="rId42" xr:uid="{3E7B7CBC-84DD-1241-A9BD-85A9EBC5992B}"/>
+    <hyperlink ref="C33" r:id="rId20" xr:uid="{D95FFA29-399D-6745-AC54-EDBAF115DD55}"/>
+    <hyperlink ref="C35" r:id="rId21" xr:uid="{DE78C3B5-25F3-B54C-AF32-A45A3CCF82C6}"/>
+    <hyperlink ref="C25" r:id="rId22" xr:uid="{E5990545-4A5C-BF4D-A2E3-33113701B5BE}"/>
+    <hyperlink ref="C26" r:id="rId23" xr:uid="{D97E6BC1-9B0F-7E4B-8DD8-6831F4863D0B}"/>
+    <hyperlink ref="C37" r:id="rId24" xr:uid="{52B47181-A334-734F-89EA-4D3CC6EE8FEE}"/>
+    <hyperlink ref="C44" r:id="rId25" xr:uid="{9DED03EC-6FA0-E340-9F64-4A2AFDB1BB32}"/>
+    <hyperlink ref="C34" r:id="rId26" xr:uid="{1B940CD5-6B42-114A-91F4-C00313929BF7}"/>
+    <hyperlink ref="C36" r:id="rId27" xr:uid="{9BF33B54-D294-6A41-BBDB-50238FA80D2D}"/>
+    <hyperlink ref="C41" r:id="rId28" xr:uid="{5D41B570-A2D6-AF45-8AF9-F20A8D241585}"/>
+    <hyperlink ref="C42" r:id="rId29" xr:uid="{F14BE297-86D6-B04A-98BE-ECD2D9A15FD8}"/>
+    <hyperlink ref="C21" r:id="rId30" xr:uid="{A0566B4B-F7CD-C14A-9EBE-943CA43F653D}"/>
+    <hyperlink ref="C22" r:id="rId31" xr:uid="{4BBCC18B-64B9-3948-8B17-249473C5AF6C}"/>
+    <hyperlink ref="C48" r:id="rId32" xr:uid="{AFDE7C59-FB6E-0B4D-A90B-C615F01A2424}"/>
+    <hyperlink ref="C47" r:id="rId33" xr:uid="{7295D0B3-C7AB-5D42-9A78-48C8E9745CA1}"/>
+    <hyperlink ref="C49" r:id="rId34" xr:uid="{0CFFB14A-47E8-B945-BCEB-B671BA1D6F52}"/>
+    <hyperlink ref="C28" r:id="rId35" xr:uid="{6A187383-C123-564D-BC92-969FA3FB5726}"/>
+    <hyperlink ref="C24" r:id="rId36" xr:uid="{1A29D440-BF31-E94C-BCA6-0C1202A21991}"/>
+    <hyperlink ref="C29" r:id="rId37" xr:uid="{36344359-AB27-274E-A2FC-98CD85B6FB8C}"/>
+    <hyperlink ref="C30" r:id="rId38" xr:uid="{A971E1C7-2D55-DA4F-9835-BC42C1DB56AF}"/>
+    <hyperlink ref="C38" r:id="rId39" xr:uid="{902445E2-BD52-B240-B54D-20CF95DAB079}"/>
+    <hyperlink ref="C27" r:id="rId40" xr:uid="{D0310BD2-7368-3C4A-AB34-40C7279D4F0B}"/>
+    <hyperlink ref="C31" r:id="rId41" xr:uid="{FAD92DE1-A270-F24C-8E9F-F880408C8288}"/>
+    <hyperlink ref="C23" r:id="rId42" xr:uid="{3E7B7CBC-84DD-1241-A9BD-85A9EBC5992B}"/>
+    <hyperlink ref="C52" r:id="rId43" xr:uid="{164D90D5-3E91-3245-93D1-4C111CB2C8F2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tony/Documents/GitHub/Unitree-Qmini-Robot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B60B166-980A-7840-92C7-CD83E6185DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3AC261-2EC1-C54A-8D04-DB11EFD05E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="500" windowWidth="45820" windowHeight="38620" activeTab="1" xr2:uid="{AB9389B4-2FA2-4848-9210-F8543C78B964}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="181">
   <si>
     <t>Right Foot A</t>
   </si>
@@ -246,15 +246,6 @@
     <t>https://detail.tmall.com/item.htm?id=899448134936&amp;skuId=5798756972352</t>
   </si>
   <si>
-    <t>M4 Thread Insert</t>
-  </si>
-  <si>
-    <t>M5 Thread Insert</t>
-  </si>
-  <si>
-    <t>M3 Thread Insert</t>
-  </si>
-  <si>
     <t>https://detail.tmall.com/item.htm?id=899448134936&amp;skuId=5922977711804</t>
   </si>
   <si>
@@ -577,6 +568,18 @@
   </si>
   <si>
     <t>上身电机上盖底部限位</t>
+  </si>
+  <si>
+    <t>替代 TPU</t>
+  </si>
+  <si>
+    <t>M3 热熔螺母</t>
+  </si>
+  <si>
+    <t>M4 热熔螺母</t>
+  </si>
+  <si>
+    <t>M5 热熔螺母</t>
   </si>
 </sst>
 </file>
@@ -1408,7 +1411,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C5" s="11">
         <v>0.2</v>
@@ -1428,7 +1431,7 @@
         <v>53</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C6" s="11">
         <v>1</v>
@@ -1448,7 +1451,7 @@
         <v>23</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C7" s="11">
         <v>0.2</v>
@@ -2093,7 +2096,7 @@
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2144,16 +2147,16 @@
     </row>
     <row r="3" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E3" s="12">
         <v>4</v>
@@ -2168,7 +2171,7 @@
     </row>
     <row r="4" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>69</v>
+        <v>179</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>67</v>
@@ -2177,7 +2180,7 @@
         <v>68</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E4" s="12">
         <v>28</v>
@@ -2192,16 +2195,16 @@
     </row>
     <row r="5" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>71</v>
+        <v>178</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C5" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>72</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="E5" s="12">
         <v>12</v>
@@ -2216,13 +2219,13 @@
     </row>
     <row r="6" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="12">
@@ -2238,16 +2241,16 @@
     </row>
     <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E7" s="12">
         <v>24</v>
@@ -2262,299 +2265,299 @@
     </row>
     <row r="8" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>91</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="C8" s="41"/>
       <c r="D8" s="10" t="s">
-        <v>90</v>
+        <v>176</v>
       </c>
       <c r="E8" s="12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F8" s="40">
         <v>0.3</v>
       </c>
       <c r="G8" s="43">
+        <f>E8*F8</f>
+        <v>1.7999999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="12">
+        <v>8</v>
+      </c>
+      <c r="F9" s="40">
+        <v>0.3</v>
+      </c>
+      <c r="G9" s="43">
         <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" s="12">
-        <v>12</v>
-      </c>
-      <c r="F9" s="40">
-        <v>0.3</v>
-      </c>
-      <c r="G9" s="43">
-        <f t="shared" ref="G9" si="1">E9*F9</f>
-        <v>3.5999999999999996</v>
-      </c>
-    </row>
     <row r="10" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>95</v>
-      </c>
       <c r="D10" s="10" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E10" s="12">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F10" s="40">
         <v>0.3</v>
       </c>
       <c r="G10" s="43">
-        <f t="shared" ref="G10:G11" si="2">E10*F10</f>
-        <v>1.2</v>
+        <f t="shared" ref="G10" si="1">E10*F10</f>
+        <v>3.5999999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" s="41" t="s">
-        <v>110</v>
-      </c>
       <c r="D11" s="10" t="s">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="E11" s="12">
+        <v>4</v>
+      </c>
+      <c r="F11" s="40">
+        <v>0.3</v>
+      </c>
+      <c r="G11" s="43">
+        <f t="shared" ref="G11:G12" si="2">E11*F11</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="12">
         <v>15</v>
       </c>
-      <c r="F11" s="40">
+      <c r="F12" s="40">
         <v>0.36</v>
       </c>
-      <c r="G11" s="43">
+      <c r="G12" s="43">
         <f t="shared" si="2"/>
         <v>5.3999999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E12" s="12">
-        <v>4</v>
-      </c>
-      <c r="F12" s="40">
-        <v>0.36</v>
-      </c>
-      <c r="G12" s="43">
-        <f t="shared" ref="G12:G15" si="3">E12*F12</f>
-        <v>1.44</v>
-      </c>
-    </row>
     <row r="13" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E13" s="12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F13" s="40">
         <v>0.36</v>
       </c>
       <c r="G13" s="43">
+        <f t="shared" ref="G13:G16" si="3">E13*F13</f>
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="12">
+        <v>6</v>
+      </c>
+      <c r="F14" s="40">
+        <v>0.36</v>
+      </c>
+      <c r="G14" s="43">
         <f t="shared" si="3"/>
         <v>2.16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C14" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E14" s="12">
+    <row r="15" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" s="12">
         <v>9</v>
       </c>
-      <c r="F14" s="40">
+      <c r="F15" s="40">
         <v>0.48</v>
       </c>
-      <c r="G14" s="43">
+      <c r="G15" s="43">
         <f t="shared" si="3"/>
         <v>4.32</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="E15" s="12">
+    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="12">
         <v>4</v>
       </c>
-      <c r="F15" s="40">
+      <c r="F16" s="40">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G15" s="43">
+      <c r="G16" s="43">
         <f t="shared" si="3"/>
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="E16" s="12">
+    <row r="17" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="12">
         <v>4</v>
       </c>
-      <c r="F16" s="40">
+      <c r="F17" s="40">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G16" s="43">
+      <c r="G17" s="43">
         <f t="shared" si="0"/>
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
+    <row r="18" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="D17" s="10" t="s">
+      <c r="C18" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E18" s="12">
         <v>2</v>
       </c>
-      <c r="F17" s="40">
+      <c r="F18" s="40">
         <v>3</v>
       </c>
-      <c r="G17" s="43">
+      <c r="G18" s="43">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="E18" s="12">
+    <row r="19" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19" s="12">
         <v>4</v>
       </c>
-      <c r="F18" s="40">
+      <c r="F19" s="40">
         <v>6.5</v>
       </c>
-      <c r="G18" s="43">
+      <c r="G19" s="43">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="E19" s="12">
-        <v>6</v>
-      </c>
-      <c r="F19" s="40">
-        <v>0.3</v>
-      </c>
-      <c r="G19" s="43">
-        <f t="shared" si="0"/>
-        <v>1.7999999999999998</v>
-      </c>
-    </row>
     <row r="20" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="41" t="s">
         <v>112</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C20" s="41" t="s">
-        <v>115</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>22</v>
@@ -2572,16 +2575,16 @@
     </row>
     <row r="21" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E21" s="12">
         <v>2</v>
@@ -2596,16 +2599,16 @@
     </row>
     <row r="22" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C22" s="41" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E22" s="12">
         <v>2</v>
@@ -2620,16 +2623,16 @@
     </row>
     <row r="23" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C23" s="41" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E23" s="12">
         <v>1</v>
@@ -2644,13 +2647,13 @@
     </row>
     <row r="24" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C24" s="41" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="12">
@@ -2666,13 +2669,13 @@
     </row>
     <row r="25" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="12">
@@ -2688,13 +2691,13 @@
     </row>
     <row r="26" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C26" s="41" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="12">
@@ -2710,13 +2713,13 @@
     </row>
     <row r="27" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C27" s="41" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="12">
@@ -2732,13 +2735,13 @@
     </row>
     <row r="28" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C28" s="41" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="12">
@@ -2754,13 +2757,13 @@
     </row>
     <row r="29" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29" s="41" t="s">
         <v>156</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="C29" s="41" t="s">
-        <v>159</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="12">
@@ -2776,13 +2779,13 @@
     </row>
     <row r="30" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B30" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C30" s="41" t="s">
         <v>157</v>
-      </c>
-      <c r="C30" s="41" t="s">
-        <v>160</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="12">
@@ -2798,13 +2801,13 @@
     </row>
     <row r="31" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C31" s="41" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="12">
@@ -2831,16 +2834,16 @@
     </row>
     <row r="33" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C33" s="41" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E33" s="12">
         <v>50</v>
@@ -2855,16 +2858,16 @@
     </row>
     <row r="34" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C34" s="41" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E34" s="12">
         <v>50</v>
@@ -2879,16 +2882,16 @@
     </row>
     <row r="35" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C35" s="41" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E35" s="12">
         <v>12</v>
@@ -2903,13 +2906,13 @@
     </row>
     <row r="36" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="12">
@@ -2925,13 +2928,13 @@
     </row>
     <row r="37" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C37" s="41" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="12">
@@ -2947,13 +2950,13 @@
     </row>
     <row r="38" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C38" s="41" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D38" s="10"/>
       <c r="E38" s="12">
@@ -2980,16 +2983,16 @@
     </row>
     <row r="40" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>71</v>
+        <v>178</v>
       </c>
       <c r="B40" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" s="10" t="s">
         <v>73</v>
-      </c>
-      <c r="C40" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>76</v>
       </c>
       <c r="E40" s="12">
         <v>6</v>
@@ -3004,13 +3007,13 @@
     </row>
     <row r="41" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C41" s="41" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="12">
@@ -3026,13 +3029,13 @@
     </row>
     <row r="42" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C42" s="41" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D42" s="10"/>
       <c r="E42" s="12">
@@ -3048,11 +3051,13 @@
     </row>
     <row r="43" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
+      <c r="D43" s="10" t="s">
+        <v>177</v>
+      </c>
       <c r="E43" s="12">
         <v>2</v>
       </c>
@@ -3066,13 +3071,13 @@
     </row>
     <row r="44" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="45" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B44" s="46" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C44" s="47" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D44" s="46"/>
       <c r="E44" s="48">
@@ -3099,16 +3104,16 @@
     </row>
     <row r="46" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>71</v>
+        <v>178</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C46" s="41" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E46" s="12">
         <v>2</v>
@@ -3123,16 +3128,16 @@
     </row>
     <row r="47" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C47" s="41" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E47" s="12">
         <v>4</v>
@@ -3147,16 +3152,16 @@
     </row>
     <row r="48" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C48" s="41" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E48" s="12">
         <v>4</v>
@@ -3171,16 +3176,16 @@
     </row>
     <row r="49" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C49" s="41" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E49" s="12">
         <v>2</v>
@@ -3195,7 +3200,7 @@
     </row>
     <row r="50" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="50" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B50" s="51"/>
       <c r="C50" s="51"/>
@@ -3206,7 +3211,7 @@
     </row>
     <row r="51" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -3224,16 +3229,16 @@
     </row>
     <row r="52" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C52" s="41" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E52" s="12">
         <v>5</v>
@@ -3340,18 +3345,18 @@
     <hyperlink ref="C6" r:id="rId5" xr:uid="{6D0F970B-33A6-5741-B59A-13BE191765B5}"/>
     <hyperlink ref="C46" r:id="rId6" xr:uid="{6E9AF94B-6606-EF47-BF3F-E19A5CFAFBEA}"/>
     <hyperlink ref="C7" r:id="rId7" xr:uid="{D08990E8-0BCD-A44E-8FA8-5BE704D9FBEC}"/>
-    <hyperlink ref="C8" r:id="rId8" xr:uid="{E2E6BF14-5F83-F745-A590-905519EB4A90}"/>
-    <hyperlink ref="C9" r:id="rId9" xr:uid="{53620724-76B4-204B-AE5B-48ED373D3F0E}"/>
-    <hyperlink ref="C10" r:id="rId10" xr:uid="{3751F033-84A3-2049-9763-EEFF4D133951}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{5C479939-3F8D-3446-86C5-81A48446719D}"/>
-    <hyperlink ref="C16" r:id="rId12" xr:uid="{47964371-1F96-6147-B384-4A7FCC0FB339}"/>
-    <hyperlink ref="C18" r:id="rId13" xr:uid="{0D761B1C-BFCE-CA4C-AC56-8959BBCD1D8C}"/>
-    <hyperlink ref="C13" r:id="rId14" xr:uid="{C2BA66AB-51D1-4E48-BDF6-5786EE1F2757}"/>
-    <hyperlink ref="C11" r:id="rId15" xr:uid="{5A619F16-5DF6-7A47-930C-607E13BD2744}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{E2E6BF14-5F83-F745-A590-905519EB4A90}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{53620724-76B4-204B-AE5B-48ED373D3F0E}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{3751F033-84A3-2049-9763-EEFF4D133951}"/>
+    <hyperlink ref="C13" r:id="rId11" xr:uid="{5C479939-3F8D-3446-86C5-81A48446719D}"/>
+    <hyperlink ref="C17" r:id="rId12" xr:uid="{47964371-1F96-6147-B384-4A7FCC0FB339}"/>
+    <hyperlink ref="C19" r:id="rId13" xr:uid="{0D761B1C-BFCE-CA4C-AC56-8959BBCD1D8C}"/>
+    <hyperlink ref="C14" r:id="rId14" xr:uid="{C2BA66AB-51D1-4E48-BDF6-5786EE1F2757}"/>
+    <hyperlink ref="C12" r:id="rId15" xr:uid="{5A619F16-5DF6-7A47-930C-607E13BD2744}"/>
     <hyperlink ref="C20" r:id="rId16" xr:uid="{63E6DFF5-E6E6-9D48-BEF0-976C1610D4CA}"/>
-    <hyperlink ref="C17" r:id="rId17" xr:uid="{33FB920F-0669-0043-8C0C-BC6FBFCB38E1}"/>
-    <hyperlink ref="C14" r:id="rId18" xr:uid="{E3D98391-497D-E645-A06E-B9C450FAA734}"/>
-    <hyperlink ref="C15" r:id="rId19" xr:uid="{A82B3F0C-F6F0-BA48-95E6-EDBA66CD97B8}"/>
+    <hyperlink ref="C18" r:id="rId17" xr:uid="{33FB920F-0669-0043-8C0C-BC6FBFCB38E1}"/>
+    <hyperlink ref="C15" r:id="rId18" xr:uid="{E3D98391-497D-E645-A06E-B9C450FAA734}"/>
+    <hyperlink ref="C16" r:id="rId19" xr:uid="{A82B3F0C-F6F0-BA48-95E6-EDBA66CD97B8}"/>
     <hyperlink ref="C33" r:id="rId20" xr:uid="{D95FFA29-399D-6745-AC54-EDBAF115DD55}"/>
     <hyperlink ref="C35" r:id="rId21" xr:uid="{DE78C3B5-25F3-B54C-AF32-A45A3CCF82C6}"/>
     <hyperlink ref="C25" r:id="rId22" xr:uid="{E5990545-4A5C-BF4D-A2E3-33113701B5BE}"/>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tony/Documents/GitHub/Unitree-Qmini-Robot/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tony/Documents/GitHub/unitree-qmini-robot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3AC261-2EC1-C54A-8D04-DB11EFD05E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90392D3F-8468-1945-BDAF-396BFB4BC571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="500" windowWidth="45820" windowHeight="38620" activeTab="1" xr2:uid="{AB9389B4-2FA2-4848-9210-F8543C78B964}"/>
+    <workbookView xWindow="4440" yWindow="500" windowWidth="45820" windowHeight="27260" activeTab="1" xr2:uid="{AB9389B4-2FA2-4848-9210-F8543C78B964}"/>
   </bookViews>
   <sheets>
     <sheet name="3D Print" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="191">
   <si>
     <t>Right Foot A</t>
   </si>
@@ -447,9 +447,6 @@
     <t>3010 24V DC 滚珠轴承</t>
   </si>
   <si>
-    <t>树脂足底</t>
-  </si>
-  <si>
     <t>Frame Core | 侧摆</t>
   </si>
   <si>
@@ -525,9 +522,6 @@
     <t>https://detail.tmall.com/item.htm?id=679335252560&amp;skuId=5136048959263</t>
   </si>
   <si>
-    <t>MISC</t>
-  </si>
-  <si>
     <t>波纹软管</t>
   </si>
   <si>
@@ -555,9 +549,6 @@
     <t>https://www.misumi.com.cn/vona2/detail/110310158399/?ProductCode=LCFB6-2040-200-TPW</t>
   </si>
   <si>
-    <t>站立调试底座</t>
-  </si>
-  <si>
     <t>2040 型材</t>
   </si>
   <si>
@@ -570,9 +561,6 @@
     <t>上身电机上盖底部限位</t>
   </si>
   <si>
-    <t>替代 TPU</t>
-  </si>
-  <si>
     <t>M3 热熔螺母</t>
   </si>
   <si>
@@ -580,6 +568,49 @@
   </si>
   <si>
     <t>M5 热熔螺母</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>站立支架</t>
+  </si>
+  <si>
+    <t>BHCS 螺丝</t>
+  </si>
+  <si>
+    <t>M6 x 25</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=596366591280&amp;skuId=4312388615153</t>
+  </si>
+  <si>
+    <t>打印件连接 2040 型材</t>
+  </si>
+  <si>
+    <t>足端</t>
+  </si>
+  <si>
+    <t>M3 x 25  杯头</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=38977230812&amp;skuId=3200123895845</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TPU 或柔性树脂</t>
+  </si>
+  <si>
+    <t>足底</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=537967383377&amp;skuId=5461813862733
+https://item.taobao.com/item.htm?id=525468794969&amp;skuId=3127568831104</t>
+  </si>
+  <si>
+    <t>粒片螺丝或 FHCS 平头</t>
+  </si>
+  <si>
+    <t>足端连接电机转轴</t>
   </si>
 </sst>
 </file>
@@ -831,7 +862,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -988,6 +1019,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1411,7 +1445,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C5" s="11">
         <v>0.2</v>
@@ -1431,7 +1465,7 @@
         <v>53</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C6" s="11">
         <v>1</v>
@@ -1451,7 +1485,7 @@
         <v>23</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C7" s="11">
         <v>0.2</v>
@@ -2093,10 +2127,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33821E08-F46F-4446-B9C0-A0B043389FFA}">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2147,7 +2181,7 @@
     </row>
     <row r="3" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>61</v>
@@ -2171,7 +2205,7 @@
     </row>
     <row r="4" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>67</v>
@@ -2195,7 +2229,7 @@
     </row>
     <row r="5" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>70</v>
@@ -2213,7 +2247,7 @@
         <v>0.2</v>
       </c>
       <c r="G5" s="43">
-        <f t="shared" ref="G5:G41" si="0">E5*F5</f>
+        <f t="shared" ref="G5:G40" si="0">E5*F5</f>
         <v>2.4000000000000004</v>
       </c>
     </row>
@@ -2268,11 +2302,11 @@
         <v>84</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C8" s="41"/>
       <c r="D8" s="10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E8" s="12">
         <v>6</v>
@@ -2368,7 +2402,7 @@
         <v>107</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E12" s="12">
         <v>15</v>
@@ -2536,7 +2570,7 @@
         <v>103</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E19" s="12">
         <v>4</v>
@@ -2578,13 +2612,13 @@
         <v>109</v>
       </c>
       <c r="B21" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>139</v>
-      </c>
-      <c r="C21" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>140</v>
       </c>
       <c r="E21" s="12">
         <v>2</v>
@@ -2599,16 +2633,16 @@
     </row>
     <row r="22" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C22" s="41" t="s">
-        <v>143</v>
-      </c>
       <c r="D22" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E22" s="12">
         <v>2</v>
@@ -2626,13 +2660,13 @@
         <v>121</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C23" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>168</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>170</v>
       </c>
       <c r="E23" s="12">
         <v>1</v>
@@ -2653,7 +2687,7 @@
         <v>122</v>
       </c>
       <c r="C24" s="41" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="12">
@@ -2713,13 +2747,13 @@
     </row>
     <row r="27" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="C27" s="41" t="s">
         <v>160</v>
-      </c>
-      <c r="C27" s="41" t="s">
-        <v>161</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="12">
@@ -2735,10 +2769,10 @@
     </row>
     <row r="28" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>150</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>151</v>
       </c>
       <c r="C28" s="41" t="s">
         <v>129</v>
@@ -2757,13 +2791,13 @@
     </row>
     <row r="29" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C29" s="41" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="12">
@@ -2779,13 +2813,13 @@
     </row>
     <row r="30" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C30" s="41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="12">
@@ -2801,13 +2835,13 @@
     </row>
     <row r="31" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>167</v>
-      </c>
       <c r="C31" s="41" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="12">
@@ -2852,7 +2886,7 @@
         <v>0.3</v>
       </c>
       <c r="G33" s="43">
-        <f t="shared" ref="G33:G37" si="7">E33*F33</f>
+        <f t="shared" ref="G33:G36" si="7">E33*F33</f>
         <v>15</v>
       </c>
     </row>
@@ -2928,51 +2962,51 @@
     </row>
     <row r="37" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="C37" s="41" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="12">
         <v>4</v>
       </c>
       <c r="F37" s="40">
-        <v>897</v>
+        <v>49</v>
       </c>
       <c r="G37" s="43">
-        <f t="shared" si="7"/>
-        <v>3588</v>
+        <f t="shared" si="0"/>
+        <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="C38" s="41" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="D38" s="10"/>
       <c r="E38" s="12">
         <v>4</v>
       </c>
       <c r="F38" s="40">
-        <v>49</v>
+        <v>897</v>
       </c>
       <c r="G38" s="43">
-        <f t="shared" si="0"/>
-        <v>196</v>
+        <f>E38*F38</f>
+        <v>3588</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="50" t="s">
-        <v>7</v>
+        <v>183</v>
       </c>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
@@ -2983,7 +3017,7 @@
     </row>
     <row r="40" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>70</v>
@@ -3010,34 +3044,36 @@
         <v>89</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>119</v>
+        <v>184</v>
       </c>
       <c r="C41" s="41" t="s">
-        <v>120</v>
+        <v>185</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="12">
         <v>6</v>
       </c>
       <c r="F41" s="40">
-        <v>0.28000000000000003</v>
+        <v>0.31</v>
       </c>
       <c r="G41" s="43">
-        <f t="shared" si="0"/>
-        <v>1.6800000000000002</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="G41" si="9">E41*F41</f>
+        <v>1.8599999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>84</v>
+        <v>189</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C42" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="D42" s="10"/>
+      <c r="C42" s="53" t="s">
+        <v>188</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>190</v>
+      </c>
       <c r="E42" s="12">
         <v>12</v>
       </c>
@@ -3045,28 +3081,28 @@
         <v>0.3</v>
       </c>
       <c r="G42" s="43">
-        <f t="shared" ref="G42" si="9">E42*F42</f>
+        <f t="shared" ref="G42" si="10">E42*F42</f>
         <v>3.5999999999999996</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="E43" s="12">
         <v>2</v>
       </c>
       <c r="F43" s="40">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="43">
         <f>E43*F43</f>
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -3104,7 +3140,7 @@
     </row>
     <row r="46" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>70</v>
@@ -3137,7 +3173,7 @@
         <v>131</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E47" s="12">
         <v>4</v>
@@ -3146,7 +3182,7 @@
         <v>0.3</v>
       </c>
       <c r="G47" s="43">
-        <f t="shared" ref="G47" si="10">E47*F47</f>
+        <f t="shared" ref="G47" si="11">E47*F47</f>
         <v>1.2</v>
       </c>
     </row>
@@ -3161,7 +3197,7 @@
         <v>120</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E48" s="12">
         <v>4</v>
@@ -3170,7 +3206,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="G48" s="43">
-        <f t="shared" ref="G48" si="11">E48*F48</f>
+        <f t="shared" ref="G48" si="12">E48*F48</f>
         <v>1.1200000000000001</v>
       </c>
     </row>
@@ -3179,13 +3215,13 @@
         <v>89</v>
       </c>
       <c r="B49" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C49" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D49" s="10" t="s">
         <v>147</v>
-      </c>
-      <c r="C49" s="41" t="s">
-        <v>149</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>148</v>
       </c>
       <c r="E49" s="12">
         <v>2</v>
@@ -3194,13 +3230,13 @@
         <v>0.21</v>
       </c>
       <c r="G49" s="43">
-        <f t="shared" ref="G49" si="12">E49*F49</f>
+        <f t="shared" ref="G49" si="13">E49*F49</f>
         <v>0.42</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="50" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="B50" s="51"/>
       <c r="C50" s="51"/>
@@ -3211,7 +3247,7 @@
     </row>
     <row r="51" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -3223,56 +3259,65 @@
         <v>5</v>
       </c>
       <c r="G51" s="43">
-        <f t="shared" ref="G51:G58" si="13">E51*F51</f>
+        <f t="shared" ref="G51:G59" si="14">E51*F51</f>
         <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="C52" s="41" t="s">
+      <c r="A52" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="B52" s="51"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="51"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="52"/>
+    </row>
+    <row r="53" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B53" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="D52" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="E52" s="12">
+      <c r="C53" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="D53" s="10"/>
+      <c r="E53" s="12">
         <v>5</v>
       </c>
-      <c r="F52" s="40">
+      <c r="F53" s="40">
         <v>13.19</v>
       </c>
-      <c r="G52" s="43">
-        <f t="shared" si="13"/>
+      <c r="G53" s="43">
+        <f t="shared" si="14"/>
         <v>65.95</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="43">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="54" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="40"/>
+      <c r="A54" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C54" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="E54" s="12">
+        <v>20</v>
+      </c>
+      <c r="F54" s="40">
+        <v>0.95</v>
+      </c>
       <c r="G54" s="43">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -3283,7 +3328,7 @@
       <c r="E55" s="12"/>
       <c r="F55" s="40"/>
       <c r="G55" s="43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -3295,7 +3340,7 @@
       <c r="E56" s="12"/>
       <c r="F56" s="40"/>
       <c r="G56" s="43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -3307,7 +3352,7 @@
       <c r="E57" s="12"/>
       <c r="F57" s="40"/>
       <c r="G57" s="43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -3319,18 +3364,31 @@
       <c r="E58" s="12"/>
       <c r="F58" s="40"/>
       <c r="G58" s="43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G59" s="44">
-        <f>SUM(G3:G58)</f>
-        <v>14178.424000000003</v>
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="43">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G60" s="44">
+        <f>SUM(G3:G59)</f>
+        <v>13997.604000000003</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A52:G52"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A39:G39"/>
     <mergeCell ref="A45:G45"/>
@@ -3361,26 +3419,26 @@
     <hyperlink ref="C35" r:id="rId21" xr:uid="{DE78C3B5-25F3-B54C-AF32-A45A3CCF82C6}"/>
     <hyperlink ref="C25" r:id="rId22" xr:uid="{E5990545-4A5C-BF4D-A2E3-33113701B5BE}"/>
     <hyperlink ref="C26" r:id="rId23" xr:uid="{D97E6BC1-9B0F-7E4B-8DD8-6831F4863D0B}"/>
-    <hyperlink ref="C37" r:id="rId24" xr:uid="{52B47181-A334-734F-89EA-4D3CC6EE8FEE}"/>
+    <hyperlink ref="C38" r:id="rId24" xr:uid="{52B47181-A334-734F-89EA-4D3CC6EE8FEE}"/>
     <hyperlink ref="C44" r:id="rId25" xr:uid="{9DED03EC-6FA0-E340-9F64-4A2AFDB1BB32}"/>
     <hyperlink ref="C34" r:id="rId26" xr:uid="{1B940CD5-6B42-114A-91F4-C00313929BF7}"/>
     <hyperlink ref="C36" r:id="rId27" xr:uid="{9BF33B54-D294-6A41-BBDB-50238FA80D2D}"/>
-    <hyperlink ref="C41" r:id="rId28" xr:uid="{5D41B570-A2D6-AF45-8AF9-F20A8D241585}"/>
-    <hyperlink ref="C42" r:id="rId29" xr:uid="{F14BE297-86D6-B04A-98BE-ECD2D9A15FD8}"/>
-    <hyperlink ref="C21" r:id="rId30" xr:uid="{A0566B4B-F7CD-C14A-9EBE-943CA43F653D}"/>
-    <hyperlink ref="C22" r:id="rId31" xr:uid="{4BBCC18B-64B9-3948-8B17-249473C5AF6C}"/>
-    <hyperlink ref="C48" r:id="rId32" xr:uid="{AFDE7C59-FB6E-0B4D-A90B-C615F01A2424}"/>
-    <hyperlink ref="C47" r:id="rId33" xr:uid="{7295D0B3-C7AB-5D42-9A78-48C8E9745CA1}"/>
-    <hyperlink ref="C49" r:id="rId34" xr:uid="{0CFFB14A-47E8-B945-BCEB-B671BA1D6F52}"/>
-    <hyperlink ref="C28" r:id="rId35" xr:uid="{6A187383-C123-564D-BC92-969FA3FB5726}"/>
-    <hyperlink ref="C24" r:id="rId36" xr:uid="{1A29D440-BF31-E94C-BCA6-0C1202A21991}"/>
-    <hyperlink ref="C29" r:id="rId37" xr:uid="{36344359-AB27-274E-A2FC-98CD85B6FB8C}"/>
-    <hyperlink ref="C30" r:id="rId38" xr:uid="{A971E1C7-2D55-DA4F-9835-BC42C1DB56AF}"/>
-    <hyperlink ref="C38" r:id="rId39" xr:uid="{902445E2-BD52-B240-B54D-20CF95DAB079}"/>
-    <hyperlink ref="C27" r:id="rId40" xr:uid="{D0310BD2-7368-3C4A-AB34-40C7279D4F0B}"/>
-    <hyperlink ref="C31" r:id="rId41" xr:uid="{FAD92DE1-A270-F24C-8E9F-F880408C8288}"/>
-    <hyperlink ref="C23" r:id="rId42" xr:uid="{3E7B7CBC-84DD-1241-A9BD-85A9EBC5992B}"/>
-    <hyperlink ref="C52" r:id="rId43" xr:uid="{164D90D5-3E91-3245-93D1-4C111CB2C8F2}"/>
+    <hyperlink ref="C42" r:id="rId28" display="https://item.taobao.com/item.htm?id=537967383377&amp;skuId=5461813862733" xr:uid="{F14BE297-86D6-B04A-98BE-ECD2D9A15FD8}"/>
+    <hyperlink ref="C21" r:id="rId29" xr:uid="{A0566B4B-F7CD-C14A-9EBE-943CA43F653D}"/>
+    <hyperlink ref="C22" r:id="rId30" xr:uid="{4BBCC18B-64B9-3948-8B17-249473C5AF6C}"/>
+    <hyperlink ref="C48" r:id="rId31" xr:uid="{AFDE7C59-FB6E-0B4D-A90B-C615F01A2424}"/>
+    <hyperlink ref="C47" r:id="rId32" xr:uid="{7295D0B3-C7AB-5D42-9A78-48C8E9745CA1}"/>
+    <hyperlink ref="C49" r:id="rId33" xr:uid="{0CFFB14A-47E8-B945-BCEB-B671BA1D6F52}"/>
+    <hyperlink ref="C28" r:id="rId34" xr:uid="{6A187383-C123-564D-BC92-969FA3FB5726}"/>
+    <hyperlink ref="C24" r:id="rId35" xr:uid="{1A29D440-BF31-E94C-BCA6-0C1202A21991}"/>
+    <hyperlink ref="C29" r:id="rId36" xr:uid="{36344359-AB27-274E-A2FC-98CD85B6FB8C}"/>
+    <hyperlink ref="C30" r:id="rId37" xr:uid="{A971E1C7-2D55-DA4F-9835-BC42C1DB56AF}"/>
+    <hyperlink ref="C37" r:id="rId38" xr:uid="{902445E2-BD52-B240-B54D-20CF95DAB079}"/>
+    <hyperlink ref="C27" r:id="rId39" xr:uid="{D0310BD2-7368-3C4A-AB34-40C7279D4F0B}"/>
+    <hyperlink ref="C31" r:id="rId40" xr:uid="{FAD92DE1-A270-F24C-8E9F-F880408C8288}"/>
+    <hyperlink ref="C23" r:id="rId41" xr:uid="{3E7B7CBC-84DD-1241-A9BD-85A9EBC5992B}"/>
+    <hyperlink ref="C53" r:id="rId42" xr:uid="{164D90D5-3E91-3245-93D1-4C111CB2C8F2}"/>
+    <hyperlink ref="C54" r:id="rId43" xr:uid="{0925B719-C096-EE4D-83FA-1C819A974518}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
